--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siha0922\My Drive\SU\Conferences\2023 EDOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Work\Paper\WIP\Ontology paper (Simon)\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D58B5D-94BB-43A1-8777-378C7B3C5F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8137E3EE-3C76-49D3-9D81-A6B65C80917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AE80C22-0C24-483D-9EC5-3E7A4C9753E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2AE80C22-0C24-483D-9EC5-3E7A4C9753E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="263">
   <si>
     <t>compliance debt</t>
   </si>
@@ -806,16 +806,34 @@
     <t>a planned piece of work that is designed to find information about something, to produce something new, or to improve something</t>
   </si>
   <si>
-    <t>difference to deliberate?</t>
-  </si>
-  <si>
-    <t>difference to indertent?</t>
-  </si>
-  <si>
     <t>something that shows or describes something</t>
   </si>
   <si>
     <t>The executed code run by a computer</t>
+  </si>
+  <si>
+    <t>difference to deliberate?
+the payoff for an earlier release is greater than the costs of paying it off</t>
+  </si>
+  <si>
+    <t>difference to indertent?
+the payoff for an earlier release is not greater than the costs of paying it off</t>
+  </si>
+  <si>
+    <t>Fowler</t>
+  </si>
+  <si>
+    <t>Debt taken in accordance with prudence principles, namely using a risk-aware approach towards decision making, allowing to reduce unexpected, negative consequences of a decision made in the context of EA debt. Efforts to exercise prudence:
+E1: Consider the concerns represented by both the enterprise and
+project
+E2: Seek the common understanding of involved stakeholders
+E3: Consider relevant consequences and their mitigation strategies</t>
+  </si>
+  <si>
+    <t>Debt taken in accordance with recklessnesss principles, namely using a risk-unaware or having too high of a risk threshold approach towards decision making, not reducing the risk of encountering unexpected, negative consequences of a decision made in the context of EA debt. Mistakes increasing recklessness:
+M1: Not considering the concerns represented by both the enterprise and project
+M2: Lack of understanding from involved stakeholders
+M3: Not considering relevant consequences and their mitigation strategies</t>
   </si>
 </sst>
 </file>
@@ -945,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -966,10 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1335,26 +1349,26 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
+      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="63.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="63.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -1383,7 +1397,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1403,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1423,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -1439,7 +1453,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -1453,7 +1467,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1473,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1513,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1533,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -1553,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1573,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -1593,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -1613,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -1633,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1653,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -1673,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1693,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1716,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1736,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1759,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -1773,7 +1787,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1853,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1887,7 +1901,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1898,7 +1912,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -1958,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -1978,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -1998,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -2012,7 +2026,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2032,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
@@ -2046,7 +2060,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2086,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>90</v>
       </c>
@@ -2097,7 +2111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -2131,7 +2145,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -2142,8 +2156,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>244</v>
       </c>
       <c r="B43" s="2"/>
@@ -2163,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2183,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
@@ -2194,7 +2208,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2214,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -2237,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -2257,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -2268,7 +2282,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2288,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2308,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -2328,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -2342,7 +2356,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2359,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -2379,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -2390,7 +2404,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>20</v>
       </c>
@@ -2401,7 +2415,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>21</v>
       </c>
@@ -2412,7 +2426,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -2432,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -2443,7 +2457,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>24</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -2474,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>235</v>
       </c>
@@ -2494,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -2514,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2525,7 +2539,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>28</v>
       </c>
@@ -2536,7 +2550,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>30</v>
       </c>
@@ -2570,7 +2584,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>31</v>
       </c>
@@ -2581,7 +2595,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -2598,7 +2612,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
@@ -2612,7 +2626,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2632,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>19</v>
       </c>
@@ -2644,7 +2658,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>34</v>
       </c>
@@ -2656,7 +2670,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
@@ -2670,7 +2684,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2687,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>98</v>
       </c>
@@ -2698,7 +2712,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -2718,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>100</v>
       </c>
@@ -2730,7 +2744,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>35</v>
       </c>
@@ -2742,7 +2756,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>36</v>
       </c>
@@ -2754,7 +2768,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>101</v>
       </c>
@@ -2766,7 +2780,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
@@ -2780,7 +2794,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
@@ -2792,7 +2806,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
@@ -2806,7 +2820,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>102</v>
       </c>
@@ -2818,7 +2832,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>103</v>
       </c>
@@ -2830,7 +2844,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>39</v>
       </c>
@@ -2844,7 +2858,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>40</v>
       </c>
@@ -2856,7 +2870,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>41</v>
       </c>
@@ -2868,76 +2882,70 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>238</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91" s="16" t="s">
+      <c r="G91" t="s">
         <v>219</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H91" t="s">
         <v>233</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>247</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92" s="16" t="s">
+      <c r="G92" t="s">
         <v>226</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="H92" t="s">
         <v>232</v>
       </c>
-      <c r="I92" s="16">
+      <c r="I92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
+    <row r="93" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>242</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93" s="16" t="s">
+      <c r="G93" t="s">
         <v>219</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H93" t="s">
         <v>231</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>67</v>
       </c>
@@ -2957,12 +2965,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>245</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>256</v>
+      <c r="C95" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>223</v>
@@ -2974,10 +2985,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>240</v>
       </c>
+      <c r="C96" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="G96" s="4" t="s">
         <v>220</v>
       </c>
@@ -2988,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -3008,12 +3022,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>246</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>257</v>
+      <c r="C98" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>223</v>
@@ -3025,10 +3042,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>241</v>
       </c>
+      <c r="C99" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="G99" s="7" t="s">
         <v>220</v>
       </c>
@@ -3039,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>68</v>
       </c>
@@ -3059,12 +3079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>237</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>142</v>
@@ -3079,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>208</v>
       </c>
@@ -3099,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>42</v>
       </c>
@@ -3110,7 +3130,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -3130,12 +3150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>45</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>219</v>
@@ -3147,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>44</v>
       </c>
@@ -3167,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3187,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>45</v>
       </c>
@@ -3198,7 +3218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>106</v>
       </c>
@@ -3209,7 +3229,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>107</v>
       </c>
@@ -3220,7 +3240,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>108</v>
       </c>
@@ -3231,7 +3251,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>109</v>
       </c>
@@ -3242,7 +3262,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -3262,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>111</v>
       </c>
@@ -3273,7 +3293,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>46</v>
       </c>
@@ -3284,7 +3304,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>47</v>
       </c>
@@ -3304,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -3318,7 +3338,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>49</v>
       </c>
@@ -3329,7 +3349,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>112</v>
       </c>
@@ -3340,30 +3360,28 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="16" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>243</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120" s="16" t="s">
+      <c r="G120" t="s">
         <v>219</v>
       </c>
-      <c r="H120" s="16" t="s">
+      <c r="H120" t="s">
         <v>232</v>
       </c>
-      <c r="I120" s="16">
+      <c r="I120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>113</v>
       </c>
@@ -3397,7 +3415,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>50</v>
       </c>
@@ -3417,14 +3435,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <f>SUBTOTAL(103,Table1[Keyword])</f>
         <v>70</v>
       </c>
       <c r="C124" s="1">
         <f>SUBTOTAL(103,Table1[Definition])</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E124">
         <f>SUBTOTAL(103,Table1[Snowballing])</f>
